--- a/Scraped Data/Merged_Data.xlsx
+++ b/Scraped Data/Merged_Data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,30 +423,35 @@
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
+          <t>Mar 2016</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mar 2017</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>Mar 2018</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Mar 2019</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Mar 2020</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Mar 2021</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Mar 2022</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Mar 2022</t>
         </is>
@@ -638,6 +643,36 @@
           <t>Cash</t>
         </is>
       </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Shareholder</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Debts</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>PBT</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -730,1032 +765,1070 @@
           <t>Cash Eq</t>
         </is>
       </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Funds</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Cash Eq</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Octaware Technologies Ltd</t>
+          <t>Lex Nimble Solutions Ltd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="C4" t="inlineStr">
+        <v>4.85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="V4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-1.52</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>-1.44</t>
-        </is>
-      </c>
-      <c r="Z4" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
       <c r="AB4" t="n">
-        <v>16.22</v>
+        <v>4.81</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="AH4" t="n">
-        <v>17.21</v>
+        <v>5.33</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.56</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Relstruct Buildcon Ltd</t>
+          <t>ANG Lifesciences India Ltd</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.09</v>
+        <v>83</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13.04</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.72</v>
+        <v>155</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>14.65</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>13.25</v>
+        <v>355</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>54</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-0.10</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>-0.27</t>
-        </is>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.05</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Escorp Asset Management Ltd</t>
+          <t>Dhruv Wellness Ltd</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.309999999999999</v>
+        <v>5.66</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>22.72</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+        <v>6.06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.29</v>
+        <v>101.94</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
+        <v>14.99</v>
       </c>
       <c r="P6" t="n">
-        <v>0.25</v>
+        <v>103.68</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>15.32</v>
+        <v>15.56</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0.16</v>
+        <v>117.05</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>24.66</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>0.17</v>
+        <v>42.35</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
+          <t>-24.67</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-24.67</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>-14.27</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>-5.15</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>-5.15</t>
+        </is>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AH6" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>5.86</t>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KMS Medisurgi Ltd</t>
+          <t>A &amp; M Febcon Ltd</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
+        <v>0.98</v>
       </c>
       <c r="D7" t="n">
-        <v>8.07</v>
+        <v>8.27</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6.15</v>
+        <v>6.359999999999999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>7.67</v>
+        <v>10.03</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>6.25</v>
+        <v>13.04</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>10.28</v>
+        <v>3.51</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.35</v>
+        <v>13.06</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>10.34</v>
+        <v>0.33</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>6.449999999999999</v>
+        <v>13.06</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>7.609999999999999</v>
+        <v>10.83</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>5.13</t>
         </is>
       </c>
       <c r="AH7" t="n">
-        <v>10.37</v>
+        <v>0.11</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>-0.48</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Meera Industries Ltd</t>
+          <t>Nouritrans Exim Ltd</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.76</v>
+        <v>0.35</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.37</v>
+        <v>6.35</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9.040000000000001</v>
+        <v>4.43</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>21.89</v>
+        <v>11.6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>13.94</v>
+        <v>11.12</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>23.36</v>
-      </c>
-      <c r="U8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="V8" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="Z8" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="AB8" t="n">
-        <v>22.7</v>
+        <v>6.25</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="AF8" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>1.25</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="AH8" t="n">
-        <v>31.89</v>
+        <v>2.8</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>-2.57</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>-2.57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bhakti Gems &amp; Jewellery Ltd</t>
+          <t>Sagar Diamonds Ltd</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>38.9</v>
+        <v>10</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
+        <v>39</v>
       </c>
       <c r="P9" t="n">
-        <v>62.37</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>2</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>14.82</v>
+        <v>45</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>55.13</v>
+        <v>1732</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>15.06</v>
+        <v>52</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>67.94000000000001</v>
+        <v>1970</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AF9" t="n">
-        <v>15.93</v>
+        <v>61</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH9" t="n">
-        <v>88.97</v>
+        <v>2835</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AN9" t="n">
+        <v>6490</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yug Decor Ltd</t>
+          <t>AKM Lace &amp; Embrotex Ltd</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.62</v>
+        <v>2.71</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16.55</v>
+        <v>1.02</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.65</v>
+        <v>3.07</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15.97</v>
+        <v>11.31</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.07</v>
+        <v>7.77</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>16.77</v>
+        <v>13.42</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>6.08</v>
+        <v>7.83</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>17.1</v>
+        <v>7.84</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>6.199999999999999</v>
+        <v>7.63</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>15.65</v>
+        <v>2.25</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>-0.20</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH10" t="n">
-        <v>24.5</v>
+        <v>2.54</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>-0.42</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Riddhi Corporate Services Ltd</t>
+          <t>Share India Securities Ltd</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
+        <v>34</v>
       </c>
       <c r="J11" t="n">
-        <v>21.42</v>
+        <v>110</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
+        <v>73</v>
       </c>
       <c r="P11" t="n">
-        <v>60.15</v>
+        <v>140</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>15</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>25.09</v>
+        <v>158</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>21</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>82.34</v>
+        <v>207</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>37</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>193</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>228</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>280</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
+        <v>454</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>447</v>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="AN11" t="n">
+        <v>864</v>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>201</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gautam Exim Ltd</t>
+          <t>Trident Texofab Ltd</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3.46</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>313</v>
+        <v>65.82000000000001</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>3.79</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>377</v>
+        <v>76.2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>8.27</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>506</v>
+        <v>85.94</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="T12" t="n">
@@ -1763,2140 +1836,3551 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>353</v>
+        <v>87.36</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>11.63</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>251</v>
+        <v>91.39</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>5.03</t>
         </is>
       </c>
       <c r="AH12" t="n">
-        <v>380</v>
+        <v>51.83</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+      <c r="AN12" t="n">
+        <v>85.07000000000001</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0.98</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G G Engineering Ltd</t>
+          <t>Poojawestern Metaliks Ltd</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.19</v>
+        <v>10.19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>82.20999999999999</v>
+        <v>23.89</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
+        <v>10.44</v>
       </c>
       <c r="J13" t="n">
-        <v>20.26</v>
+        <v>15.4</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>10.58</t>
-        </is>
+        <v>11.21</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52</v>
+        <v>21.06</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.82</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.61</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rithwik Facility Management Services Ltd</t>
+          <t>Vanta Bioscience Ltd</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.13</v>
+        <v>22.25</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>21.5</v>
+        <v>12.31</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
+        <v>23.47</v>
       </c>
       <c r="J14" t="n">
-        <v>20.96</v>
+        <v>13.86</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
+        <v>23.92</v>
       </c>
       <c r="P14" t="n">
-        <v>27.28</v>
+        <v>9.85</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0.48</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>26.26</v>
+        <v>10.11</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="Z14" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="AH14" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>0.89</t>
+          <t>0.09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jhandewalas Foods Ltd</t>
+          <t>Mehai Technology Ltd</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+        <v>0.12</v>
       </c>
       <c r="D15" t="n">
-        <v>148</v>
+        <v>1.24</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>32</v>
+        <v>0.42</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>178</v>
+        <v>5.22</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>12.53</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>149</v>
+        <v>5.68</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>-7</v>
+        <v>12.66</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>50</v>
+        <v>21.16</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>-26</v>
+        <v>12.59</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>28</v>
+        <v>24.81</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AH15" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>0.27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CRP Risk Management Ltd</t>
+          <t>IRIS Business Services Ltd</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.38</v>
+        <v>28.07</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19.92</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81.74000000000001</v>
+        <v>36.79000000000001</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>-6.76</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>-7.53</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>60.73</v>
+        <v>19</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>82.40000000000001</v>
+        <v>27.07</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>-12.13</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>-10.60</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>68.40000000000001</v>
+        <v>30.11</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>16.88</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>83.28</v>
+        <v>35.57</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>10.64</t>
+          <t>-5.59</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>-5.17</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>17.70</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>58.76</v>
+        <v>40.96</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-14.88</t>
+          <t>-5.36</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-11.01</t>
+          <t>-6.11</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>17.54</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>32.9</v>
+        <v>51.58</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="AH16" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="AN16" t="n">
+        <v>61.92</v>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ashoka Metcast Ltd</t>
+          <t>Siddharth Education Services Ltd</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.14</v>
+        <v>4.46</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18.92</v>
+        <v>3.69</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
+        <v>5.51</v>
       </c>
       <c r="J17" t="n">
-        <v>0.28</v>
+        <v>5.23</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
+        <v>22.48</v>
       </c>
       <c r="P17" t="n">
-        <v>22.07</v>
+        <v>12.61</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>20.47</v>
+        <v>24</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>54.34</v>
+        <v>16.39</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>6.85</t>
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>67.34</v>
+        <v>2.33</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>-2.24</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gautam Gems Ltd</t>
+          <t>Shreeji Translogistics Ltd</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>23</v>
       </c>
       <c r="P18" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AH18" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Medico Remedies Ltd</t>
+          <t>Kaarya Facilities &amp; Services Ltd</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+        <v>1.43</v>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>8.41</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>62</v>
+        <v>10.67</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>28</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>100</v>
+        <v>10.95</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>30</v>
+        <v>10.74</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>91</v>
+        <v>17.83</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>11.03</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>123</v>
+        <v>20.31</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>1.84</t>
         </is>
       </c>
       <c r="AH19" t="n">
-        <v>123</v>
+        <v>17.61</v>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="AN19" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gujarat Hy-Spin Ltd</t>
+          <t>Sheetal Cool Products Ltd</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>52.05</v>
+        <v>125</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>31.11</t>
-        </is>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>54.41999999999999</v>
+        <v>155</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>18.76</v>
+        <v>36</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>27.92</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>63.05</v>
+        <v>207</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>4</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>18.99</v>
+        <v>38</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>22.91</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>50.57</v>
+        <v>232</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>19.1</v>
+        <v>48</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>53.59</v>
+        <v>260</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>17</t>
         </is>
       </c>
       <c r="AH20" t="n">
-        <v>71.3</v>
+        <v>239</v>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AN20" t="n">
+        <v>330</v>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Focus Suites Solutions &amp; Services Ltd</t>
+          <t>Sanghvi Brands Ltd</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.550000000000001</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+        <v>8.120000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>15.42</v>
+        <v>15.06</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>26.81</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
+        <v>8.219999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>26.99</v>
+        <v>26.7</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>30.3</v>
+        <v>22.7</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>29.96</v>
+        <v>27.37</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>-2.13</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>-2.28</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>-9.11</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>-9.12</t>
+        </is>
+      </c>
+      <c r="AF21" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AH21" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>-5.75</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>-5.75</t>
+        </is>
+      </c>
+      <c r="AN21" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>-2.80</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>-2.80</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lorenzini Apparels Ltd</t>
+          <t>Sharika Enterprises Ltd</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
+        <v>8.09</v>
       </c>
       <c r="D22" t="n">
-        <v>16.44</v>
+        <v>18.89</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
+        <v>10.3</v>
       </c>
       <c r="J22" t="n">
-        <v>23.31</v>
+        <v>23.52</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>11.36</v>
+        <v>23.98</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>25.47</v>
+        <v>20.84</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>11.73</v>
+        <v>24.46</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>35.08</v>
+        <v>24.52</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>11.81</v>
+        <v>24.49</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>25.72</v>
+        <v>28.61</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>10.84</t>
         </is>
       </c>
       <c r="AH22" t="n">
-        <v>24.59</v>
+        <v>51.15</v>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="AN22" t="n">
+        <v>48.32</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>3.48</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kenvi Jewels Ltd</t>
+          <t>Dynamic Cables Ltd</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7.18</v>
+        <v>270</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>12.14</v>
+        <v>42</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>17.63</v>
+        <v>305</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>12.24</v>
+        <v>71</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>30.85</v>
+        <v>360</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>12.47</v>
+        <v>92</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>92</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>34.7</v>
+        <v>533</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>33</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Z23" t="n">
-        <v>12.75</v>
+        <v>108</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>39.86</v>
+        <v>432</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>117</v>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>131</t>
         </is>
       </c>
       <c r="AH23" t="n">
-        <v>66.86</v>
+        <v>351</v>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>148</v>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="AN23" t="n">
+        <v>567</v>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>31</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tasty Dairy Specialities Ltd</t>
+          <t>Ratnabhumi Developers Ltd</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>33.79</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>239</v>
+        <v>0.97</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>62</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+        <v>34.59999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>332</v>
+        <v>4.06</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>68</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+        <v>34.77</v>
       </c>
       <c r="P24" t="n">
-        <v>366</v>
+        <v>0.16</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>72</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>403</v>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Z24" t="n">
-        <v>58</v>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AB24" t="n">
-        <v>330</v>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="AF24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="AH24" t="n">
-        <v>163</v>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>-41</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>-29</t>
+          <t>0.17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bhatia Communications &amp; Retail (India) Ltd</t>
+          <t>MRC Exim Ltd</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>7.48</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>133</v>
+        <v>15.79</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>28</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>11.93</v>
       </c>
       <c r="J25" t="n">
-        <v>167</v>
+        <v>23.96</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>34</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>12.08</v>
       </c>
       <c r="P25" t="n">
-        <v>181</v>
+        <v>13.02</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>39</v>
+        <v>12.15</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>187</v>
+        <v>17.5</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>42</v>
+        <v>12.05</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>190</v>
+        <v>6.36</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF25" t="n">
-        <v>47</v>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="AH25" t="n">
-        <v>251</v>
+        <v>12.92</v>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.34</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Angel Fibers Ltd</t>
+          <t>Diggi Multitrade Ltd</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
+        <v>7.11</v>
       </c>
       <c r="D26" t="n">
-        <v>82</v>
+        <v>1.01</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>29</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+        <v>7.17</v>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>1.92</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>29</v>
+        <v>10.57</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>137</v>
+        <v>5.16</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>15</v>
+        <v>10.61</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>145</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>10.59</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>140</v>
+        <v>0.88</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>31</v>
+        <v>10.64</v>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="AH26" t="n">
-        <v>254</v>
+        <v>0.3</v>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AN26" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>East India Securities Ltd</t>
+          <t>Kids Medical Systems Ltd</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>261</v>
+        <v>0.48</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>2.23</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>304</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>11.12</v>
       </c>
       <c r="J27" t="n">
-        <v>62</v>
+        <v>0.55</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>349</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>7.24</v>
       </c>
       <c r="P27" t="n">
-        <v>67</v>
+        <v>0.34</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>393</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>71</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="Z27" t="n">
-        <v>465</v>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB27" t="n">
-        <v>109</v>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>72</t>
+          <t>-0.34</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Inflame Appliances Ltd</t>
+          <t>Rithwik Facility Management Services Ltd</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.11</v>
+        <v>1.47</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.949999999999999</v>
+        <v>23.91</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>12.18</v>
+        <v>2.13</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>56.05</v>
+        <v>21.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>7.56</v>
+        <v>11.3</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>9.63</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>16.28</v>
+        <v>20.96</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-5.76</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-4.26</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.2</v>
+        <v>12.41</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="V28" t="n">
-        <v>20.12</v>
+        <v>27.28</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-4.52</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="Z28" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>1.71</t>
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>39.54</v>
+        <v>26.26</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="AF28" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="AH28" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="AN28" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>0.89</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Shreeshay Engineers Ltd</t>
+          <t>Jhandewalas Foods Ltd</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.31</v>
+        <v>11</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.22</v>
+        <v>143</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19.96</v>
+        <v>13</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.6</v>
+        <v>148</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>20.91</v>
+        <v>32</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>28</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>9.120000000000001</v>
+        <v>178</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>21.31</v>
+        <v>16</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>35</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>4.22</v>
+        <v>149</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-16</t>
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>21.77</v>
+        <v>-7</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>7.25</v>
+        <v>50</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-24</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-24</t>
+        </is>
+      </c>
+      <c r="AF29" t="n">
+        <v>-26</v>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>49</t>
         </is>
       </c>
       <c r="AH29" t="n">
-        <v>12.69</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>-19</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Axita Cotton Ltd</t>
+          <t>CRP Risk Management Ltd</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+        <v>24.32</v>
       </c>
       <c r="D30" t="n">
-        <v>124</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="J30" t="n">
+        <v>81.74000000000001</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>60.73</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>-14.88</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-11.01</t>
+        </is>
+      </c>
+      <c r="AH30" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ashoka Metcast Ltd</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="P31" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>20.47</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>67.34</v>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gautam Gems Ltd</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>12</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>13</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V32" t="n">
+        <v>44</v>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>329</v>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="AD32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>18</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>213</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="AF32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH32" t="n">
+        <v>94</v>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN32" t="n">
+        <v>180</v>
+      </c>
+      <c r="AO32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Medico Remedies Ltd</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>54</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>27</v>
+      </c>
+      <c r="J33" t="n">
+        <v>62</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>28</v>
+      </c>
+      <c r="P33" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>30</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>91</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>123</v>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH33" t="n">
+        <v>123</v>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Gujarat Hy-Spin Ltd</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="J34" t="n">
+        <v>54.41999999999999</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="P34" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="Z34" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>53.59</v>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="AH34" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Focus Suites Solutions &amp; Services Ltd</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.550000000000001</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>29.96</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Lorenzini Apparels Ltd</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="V36" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Z36" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="AF36" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="AH36" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="AN36" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kenvi Jewels Ltd</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J37" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30.85</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="V37" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="Z37" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="AH37" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tasty Dairy Specialities Ltd</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>34</v>
+      </c>
+      <c r="D38" t="n">
+        <v>239</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>62</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>332</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>68</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>366</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>72</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="V38" t="n">
+        <v>403</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
+        <v>330</v>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AH38" t="n">
+        <v>163</v>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>-41</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Bhatia Communications &amp; Retail (India) Ltd</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>96</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>18</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>484</v>
-      </c>
-      <c r="Q30" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>133</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>28</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>167</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>34</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
+        <v>181</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z39" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>187</v>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH39" t="n">
+        <v>190</v>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL39" t="n">
+        <v>47</v>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AN39" t="n">
+        <v>251</v>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Angel Fibers Ltd</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>82</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>29</v>
+      </c>
+      <c r="J40" t="n">
+        <v>86</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>15</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="V40" t="n">
+        <v>145</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="Z40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF40" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="AH40" t="n">
+        <v>254</v>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>East India Securities Ltd</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>232</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="T30" t="n">
-        <v>22</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>619</v>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AB30" t="n">
-        <v>830</v>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>15</t>
+      <c r="D41" t="n">
+        <v>33</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>261</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>44</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>304</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>349</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
+        <v>67</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="Z41" t="n">
+        <v>393</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>71</v>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AF41" t="n">
+        <v>465</v>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH41" t="n">
+        <v>109</v>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>72</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
